--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1552,28 +1552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.44731428265757</v>
+        <v>72.62879852760373</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.86546156436988</v>
+        <v>99.37392630188182</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.62496839052774</v>
+        <v>89.8898182478365</v>
       </c>
       <c r="AD2" t="n">
-        <v>55447.31428265756</v>
+        <v>72628.79852760374</v>
       </c>
       <c r="AE2" t="n">
-        <v>75865.46156436988</v>
+        <v>99373.92630188182</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.320748999567268e-06</v>
+        <v>1.055406331810336e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.149305555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>68624.96839052773</v>
+        <v>89889.81824783651</v>
       </c>
     </row>
     <row r="3">
@@ -1658,28 +1658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>43.98442737950549</v>
+        <v>61.25116297047224</v>
       </c>
       <c r="AB3" t="n">
-        <v>60.1814339966059</v>
+        <v>83.8065433867671</v>
       </c>
       <c r="AC3" t="n">
-        <v>54.43780240115523</v>
+        <v>75.80816450917624</v>
       </c>
       <c r="AD3" t="n">
-        <v>43984.42737950549</v>
+        <v>61251.16297047224</v>
       </c>
       <c r="AE3" t="n">
-        <v>60181.43399660591</v>
+        <v>83806.54338676711</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.284724119637408e-06</v>
+        <v>1.194379194490069e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.668981481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>54437.80240115523</v>
+        <v>75808.16450917623</v>
       </c>
     </row>
   </sheetData>
@@ -1955,28 +1955,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.94489109830415</v>
+        <v>60.77973820830999</v>
       </c>
       <c r="AB2" t="n">
-        <v>60.12733871244866</v>
+        <v>83.16151922938435</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.38886989499471</v>
+        <v>75.2247005520768</v>
       </c>
       <c r="AD2" t="n">
-        <v>43944.89109830416</v>
+        <v>60779.73820830999</v>
       </c>
       <c r="AE2" t="n">
-        <v>60127.33871244866</v>
+        <v>83161.51922938436</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.095482320472627e-06</v>
+        <v>1.18514815736041e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.883101851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>54388.86989499471</v>
+        <v>75224.7005520768</v>
       </c>
     </row>
     <row r="3">
@@ -2061,28 +2061,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>42.5094923928697</v>
+        <v>59.34433950287553</v>
       </c>
       <c r="AB3" t="n">
-        <v>58.16336287835261</v>
+        <v>81.19754339528832</v>
       </c>
       <c r="AC3" t="n">
-        <v>52.61233315804678</v>
+        <v>73.44816381512886</v>
       </c>
       <c r="AD3" t="n">
-        <v>42509.4923928697</v>
+        <v>59344.33950287553</v>
       </c>
       <c r="AE3" t="n">
-        <v>58163.36287835261</v>
+        <v>81197.54339528832</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.664638620440222e-06</v>
+        <v>1.268470498569264e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.628472222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>52612.33315804678</v>
+        <v>73448.16381512886</v>
       </c>
     </row>
   </sheetData>
@@ -2358,28 +2358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>39.38956745176066</v>
+        <v>54.92414492024319</v>
       </c>
       <c r="AB2" t="n">
-        <v>53.89454393240703</v>
+        <v>75.14963816211157</v>
       </c>
       <c r="AC2" t="n">
-        <v>48.75092430106893</v>
+        <v>67.97746216911628</v>
       </c>
       <c r="AD2" t="n">
-        <v>39389.56745176065</v>
+        <v>54924.14492024319</v>
       </c>
       <c r="AE2" t="n">
-        <v>53894.54393240703</v>
+        <v>75149.63816211157</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.952567338477523e-06</v>
+        <v>1.385072671410873e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.917824074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>48750.92430106892</v>
+        <v>67977.46216911628</v>
       </c>
     </row>
   </sheetData>
@@ -2655,28 +2655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.33356642218777</v>
+        <v>56.37649744567992</v>
       </c>
       <c r="AB2" t="n">
-        <v>55.18616497003449</v>
+        <v>77.13681096068446</v>
       </c>
       <c r="AC2" t="n">
-        <v>49.91927483967057</v>
+        <v>69.77498198480855</v>
       </c>
       <c r="AD2" t="n">
-        <v>40333.56642218777</v>
+        <v>56376.49744567992</v>
       </c>
       <c r="AE2" t="n">
-        <v>55186.16497003449</v>
+        <v>77136.81096068445</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.046301502685924e-06</v>
+        <v>1.367162089769378e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.709490740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>49919.27483967057</v>
+        <v>69774.98198480855</v>
       </c>
     </row>
   </sheetData>
@@ -2952,28 +2952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.49372327015019</v>
+        <v>61.52609519841171</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.61476333650599</v>
+        <v>84.18271779018757</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.54345960756432</v>
+        <v>76.14843735549846</v>
       </c>
       <c r="AD2" t="n">
-        <v>46493.72327015019</v>
+        <v>61526.09519841171</v>
       </c>
       <c r="AE2" t="n">
-        <v>63614.76333650599</v>
+        <v>84182.71779018757</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.631972115334057e-06</v>
+        <v>1.364272826125709e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.21875</v>
       </c>
       <c r="AH2" t="n">
-        <v>57543.45960756432</v>
+        <v>76148.43735549846</v>
       </c>
     </row>
   </sheetData>
@@ -3249,28 +3249,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.35111993442644</v>
+        <v>61.29948523930688</v>
       </c>
       <c r="AB2" t="n">
-        <v>60.6831589275823</v>
+        <v>83.87266004681464</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.89164340889475</v>
+        <v>75.86797108798419</v>
       </c>
       <c r="AD2" t="n">
-        <v>44351.11993442644</v>
+        <v>61299.48523930687</v>
       </c>
       <c r="AE2" t="n">
-        <v>60683.1589275823</v>
+        <v>83872.66004681465</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.982756945180432e-06</v>
+        <v>1.163795189806751e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.900462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>54891.64340889475</v>
+        <v>75867.97108798419</v>
       </c>
     </row>
     <row r="3">
@@ -3355,28 +3355,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>42.92089360360698</v>
+        <v>59.86925890848742</v>
       </c>
       <c r="AB3" t="n">
-        <v>58.72626016462355</v>
+        <v>81.9157612838559</v>
       </c>
       <c r="AC3" t="n">
-        <v>53.1215083173475</v>
+        <v>74.09783599643693</v>
       </c>
       <c r="AD3" t="n">
-        <v>42920.89360360699</v>
+        <v>59869.25890848742</v>
       </c>
       <c r="AE3" t="n">
-        <v>58726.26016462356</v>
+        <v>81915.7612838559</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.548523483112471e-06</v>
+        <v>1.246277517644185e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.645833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>53121.5083173475</v>
+        <v>74097.83599643693</v>
       </c>
     </row>
   </sheetData>
@@ -3652,28 +3652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.29688341474657</v>
+        <v>61.25294823140558</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.34543836238135</v>
+        <v>83.80898605953625</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.29983863097007</v>
+        <v>75.81037405668461</v>
       </c>
       <c r="AD2" t="n">
-        <v>46296.88341474657</v>
+        <v>61252.94823140558</v>
       </c>
       <c r="AE2" t="n">
-        <v>63345.43836238135</v>
+        <v>83808.98605953626</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.250342815740414e-06</v>
+        <v>1.321898717718603e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.519675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>57299.83863097007</v>
+        <v>75810.37405668461</v>
       </c>
     </row>
   </sheetData>
@@ -3949,28 +3949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.52460493656633</v>
+        <v>57.99103058051531</v>
       </c>
       <c r="AB2" t="n">
-        <v>56.81579641031017</v>
+        <v>79.34588642393999</v>
       </c>
       <c r="AC2" t="n">
-        <v>51.39337654249329</v>
+        <v>71.77322638630855</v>
       </c>
       <c r="AD2" t="n">
-        <v>41524.60493656633</v>
+        <v>57991.0305805153</v>
       </c>
       <c r="AE2" t="n">
-        <v>56815.79641031017</v>
+        <v>79345.88642393998</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.827121171652665e-06</v>
+        <v>1.3106890821966e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.668981481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>51393.37654249329</v>
+        <v>71773.22638630855</v>
       </c>
     </row>
   </sheetData>
@@ -4246,28 +4246,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>42.65285918318231</v>
+        <v>59.36987142647549</v>
       </c>
       <c r="AB2" t="n">
-        <v>58.35952364575461</v>
+        <v>81.2324772995467</v>
       </c>
       <c r="AC2" t="n">
-        <v>52.78977261712136</v>
+        <v>73.4797636765949</v>
       </c>
       <c r="AD2" t="n">
-        <v>42652.85918318231</v>
+        <v>59369.87142647549</v>
       </c>
       <c r="AE2" t="n">
-        <v>58359.52364575461</v>
+        <v>81232.47729954671</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.5090735694615e-06</v>
+        <v>1.251210323468109e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.732638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>52789.77261712137</v>
+        <v>73479.7636765949</v>
       </c>
     </row>
     <row r="3">
@@ -4352,28 +4352,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>42.3272199023216</v>
+        <v>59.04423214561479</v>
       </c>
       <c r="AB3" t="n">
-        <v>57.91396961549007</v>
+        <v>80.78692326928217</v>
       </c>
       <c r="AC3" t="n">
-        <v>52.38674163816611</v>
+        <v>73.07673269763964</v>
       </c>
       <c r="AD3" t="n">
-        <v>42327.2199023216</v>
+        <v>59044.23214561478</v>
       </c>
       <c r="AE3" t="n">
-        <v>57913.96961549007</v>
+        <v>80786.92326928217</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.658308413946724e-06</v>
+        <v>1.273154448938032e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.663194444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>52386.74163816612</v>
+        <v>73076.73269763964</v>
       </c>
     </row>
   </sheetData>
@@ -4649,28 +4649,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.38514818201597</v>
+        <v>71.46388725265351</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.4121590460116</v>
+        <v>97.78004330323736</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.31036702479821</v>
+        <v>88.44805320555334</v>
       </c>
       <c r="AD2" t="n">
-        <v>54385.14818201597</v>
+        <v>71463.88725265351</v>
       </c>
       <c r="AE2" t="n">
-        <v>74412.1590460116</v>
+        <v>97780.04330323737</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.606058697680403e-06</v>
+        <v>1.100423660788757e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.027777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>67310.36702479821</v>
+        <v>88448.05320555334</v>
       </c>
     </row>
     <row r="3">
@@ -4755,28 +4755,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>43.72958554213945</v>
+        <v>60.89357595879758</v>
       </c>
       <c r="AB3" t="n">
-        <v>59.83274815189349</v>
+        <v>83.31727706176849</v>
       </c>
       <c r="AC3" t="n">
-        <v>54.12239464407838</v>
+        <v>75.36559307554573</v>
       </c>
       <c r="AD3" t="n">
-        <v>43729.58554213944</v>
+        <v>60893.57595879758</v>
       </c>
       <c r="AE3" t="n">
-        <v>59832.74815189349</v>
+        <v>83317.27706176849</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.336712118144112e-06</v>
+        <v>1.206132588851553e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.674768518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>54122.39464407838</v>
+        <v>75365.59307554574</v>
       </c>
     </row>
   </sheetData>
@@ -5052,28 +5052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.61672228909086</v>
+        <v>56.80834075549174</v>
       </c>
       <c r="AB2" t="n">
-        <v>55.57359131908463</v>
+        <v>77.72767802875093</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.26972576172481</v>
+        <v>70.30945752918608</v>
       </c>
       <c r="AD2" t="n">
-        <v>40616.72228909086</v>
+        <v>56808.34075549174</v>
       </c>
       <c r="AE2" t="n">
-        <v>55573.59131908463</v>
+        <v>77727.67802875093</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.042814761048311e-06</v>
+        <v>1.357945579423313e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.663194444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>50269.72576172481</v>
+        <v>70309.45752918608</v>
       </c>
     </row>
   </sheetData>
@@ -5349,28 +5349,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>39.61986491909256</v>
+        <v>55.3362489032563</v>
       </c>
       <c r="AB2" t="n">
-        <v>54.20964708721623</v>
+        <v>75.71349701241442</v>
       </c>
       <c r="AC2" t="n">
-        <v>49.03595445303412</v>
+        <v>68.48750712212728</v>
       </c>
       <c r="AD2" t="n">
-        <v>39619.86491909256</v>
+        <v>55336.2489032563</v>
       </c>
       <c r="AE2" t="n">
-        <v>54209.64708721623</v>
+        <v>75713.49701241442</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.057315619075193e-06</v>
+        <v>1.389162838435226e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.813657407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>49035.95445303412</v>
+        <v>68487.50712212728</v>
       </c>
     </row>
   </sheetData>
@@ -8467,28 +8467,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.77676505011314</v>
+        <v>62.02803388427518</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.00203358677315</v>
+        <v>84.8694924441576</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.89376932868333</v>
+        <v>76.76966720038808</v>
       </c>
       <c r="AD2" t="n">
-        <v>46776.76505011314</v>
+        <v>62028.03388427518</v>
       </c>
       <c r="AE2" t="n">
-        <v>64002.03358677315</v>
+        <v>84869.4924441576</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.87882015348945e-06</v>
+        <v>1.387298135185408e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.021990740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>57893.76932868333</v>
+        <v>76769.66720038808</v>
       </c>
     </row>
   </sheetData>
@@ -8764,28 +8764,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.77072330824301</v>
+        <v>68.35432513512325</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.5714758272035</v>
+        <v>93.52540322983594</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.54991743248658</v>
+        <v>84.59947000933113</v>
       </c>
       <c r="AD2" t="n">
-        <v>53770.72330824301</v>
+        <v>68354.32513512325</v>
       </c>
       <c r="AE2" t="n">
-        <v>73571.4758272035</v>
+        <v>93525.40322983594</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.575234210228938e-06</v>
+        <v>1.234517839501958e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.057870370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>66549.91743248657</v>
+        <v>84599.47000933113</v>
       </c>
     </row>
   </sheetData>
@@ -9061,28 +9061,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.74480666705713</v>
+        <v>58.3391979455027</v>
       </c>
       <c r="AB2" t="n">
-        <v>57.11708613258094</v>
+        <v>79.82226437277561</v>
       </c>
       <c r="AC2" t="n">
-        <v>51.66591159653422</v>
+        <v>72.20413949230812</v>
       </c>
       <c r="AD2" t="n">
-        <v>41744.80666705713</v>
+        <v>58339.1979455027</v>
       </c>
       <c r="AE2" t="n">
-        <v>57117.08613258095</v>
+        <v>79822.26437277561</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.824066162808187e-06</v>
+        <v>1.303650596894002e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.63425925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>51665.91159653421</v>
+        <v>72204.13949230811</v>
       </c>
     </row>
   </sheetData>
@@ -9358,28 +9358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.96808644777473</v>
+        <v>62.02605212918778</v>
       </c>
       <c r="AB2" t="n">
-        <v>61.52731972978658</v>
+        <v>84.86678091941816</v>
       </c>
       <c r="AC2" t="n">
-        <v>55.65523868892404</v>
+        <v>76.76721445976413</v>
       </c>
       <c r="AD2" t="n">
-        <v>44968.08644777473</v>
+        <v>62026.05212918778</v>
       </c>
       <c r="AE2" t="n">
-        <v>61527.31972978658</v>
+        <v>84866.78091941816</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.808001986972185e-06</v>
+        <v>1.133853855944923e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.958333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>55655.23868892404</v>
+        <v>76767.21445976413</v>
       </c>
     </row>
     <row r="3">
@@ -9464,28 +9464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>43.25610677330132</v>
+        <v>60.31407245471438</v>
       </c>
       <c r="AB3" t="n">
-        <v>59.18491361196044</v>
+        <v>82.52437480159203</v>
       </c>
       <c r="AC3" t="n">
-        <v>53.53638852339486</v>
+        <v>74.64836429423494</v>
       </c>
       <c r="AD3" t="n">
-        <v>43256.10677330132</v>
+        <v>60314.07245471438</v>
       </c>
       <c r="AE3" t="n">
-        <v>59184.91361196044</v>
+        <v>82524.37480159203</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.472404901543563e-06</v>
+        <v>1.230336388588326e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.645833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>53536.38852339485</v>
+        <v>74648.36429423494</v>
       </c>
     </row>
   </sheetData>
@@ -9761,28 +9761,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.801133916368</v>
+        <v>83.06287448113046</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.55903789794702</v>
+        <v>113.6502893404333</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.48884200034206</v>
+        <v>102.8036652349946</v>
       </c>
       <c r="AD2" t="n">
-        <v>61801.133916368</v>
+        <v>83062.87448113046</v>
       </c>
       <c r="AE2" t="n">
-        <v>84559.03789794703</v>
+        <v>113650.2893404333</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.303266639932873e-06</v>
+        <v>1.050716994618149e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.296296296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>76488.84200034206</v>
+        <v>102803.6652349946</v>
       </c>
     </row>
   </sheetData>
@@ -10058,28 +10058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.01169113623607</v>
+        <v>55.89677308787074</v>
       </c>
       <c r="AB2" t="n">
-        <v>54.74576100366208</v>
+        <v>76.48043093038528</v>
       </c>
       <c r="AC2" t="n">
-        <v>49.52090240973659</v>
+        <v>69.18124594336577</v>
       </c>
       <c r="AD2" t="n">
-        <v>40011.69113623608</v>
+        <v>55896.77308787074</v>
       </c>
       <c r="AE2" t="n">
-        <v>54745.76100366208</v>
+        <v>76480.43093038528</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.043520263343171e-06</v>
+        <v>1.376339337245763e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.761574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>49520.90240973659</v>
+        <v>69181.24594336576</v>
       </c>
     </row>
   </sheetData>
@@ -10355,28 +10355,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.97136284223036</v>
+        <v>57.3038051482958</v>
       </c>
       <c r="AB2" t="n">
-        <v>56.05882616952474</v>
+        <v>78.40559426933143</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.70865047907175</v>
+        <v>70.92267439522722</v>
       </c>
       <c r="AD2" t="n">
-        <v>40971.36284223036</v>
+        <v>57303.8051482958</v>
       </c>
       <c r="AE2" t="n">
-        <v>56058.82616952473</v>
+        <v>78405.59426933143</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.994839972320419e-06</v>
+        <v>1.342849278568788e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.640046296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>50708.65047907175</v>
+        <v>70922.67439522722</v>
       </c>
     </row>
   </sheetData>
